--- a/offers_price/Roman/Roman.xlsx
+++ b/offers_price/Roman/Roman.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,186 @@
         <is>
           <t>Разница в процентах</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Huawei MatePad Pro 11 8/256Gb WiFi Black (RU)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/details/planshet-huawei-matepad-pro-11-2022-8-256gb-53013gdt-wi-fi-100044966966/#?details_block=prices</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53470</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74.28452347874409</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Увлажнитель воздуха Electrolux EHU-3710D</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/details/vozduhouvlazhnitel-electrolux-ehu-3710d-100000102740/#?details_block=prices&amp;related_search=%D1%83%D0%B2%D0%BB%D0%B0%D0%B6%D0%BD%D0%B8%D1%82%D0%B5%D0%BB%D1%8C%20%D0%B2%D0%BE%D0%B7%D0%B4%D1%83%D1%85%D0%B0%20electrolux%20ehu-3710d</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6840</v>
+      </c>
+      <c r="D3" t="n">
+        <v>75.66371681415929</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Электрическая зубная щетка Oclean Flow, White</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/details/elektricheskaya-zubnaya-shetka-oclean-f5002-600005454632/#?details_block=prices&amp;related_search=oclean%20flow,%20white</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1499</v>
+      </c>
+      <c r="D4" t="n">
+        <v>60.2008032128514</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dreame Hair Artist AHD5-GD0 Серый (RU)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/details/fen-dreame-intelligent-temperature-control-hair-dryer-grey-100034240959/#?details_block=prices&amp;related_search=ahd5-gd0</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6299</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.19316843345112</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Утюг Rowenta DW 4345D1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/details/utyug-rowenta-express-stram-dw4345d1-pink-purple-100032294103/#?details_block=prices&amp;related_search=%D1%83%D1%82%D1%8E%D0%B3%20rowenta%20dw%204345d1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>71.53846153846153</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Krups EA 829810</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/details/kofemashina-avtomaticheskaya-krups-ea829810-100000028221/#?related_search=krups%20ea%20829810</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>57500</v>
+      </c>
+      <c r="D7" t="n">
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Xiaomi 13T Pro 12/512GB Green (EU)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/details/smartfon-xiaomi-13t-pro-12-512-gb-eu-zelenyy-600014120658/#?details_block=prices</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>50517</v>
+      </c>
+      <c r="D8" t="n">
+        <v>78.69917432621904</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Xiaomi 14 Ultra 16/512GB Белый (EU)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/details/smartfon-xiaomi-14-ultra-16-512gb-white-600017631104/#?details_block=prices</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>98035</v>
+      </c>
+      <c r="D9" t="n">
+        <v>78.0595588820766</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Xiaomi POCO M4 Pro 5G 4/64GB Чёрный (RU)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/details/smartfon-poco-m4-pro-5g-64gb-power-black-100030020871/</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>19900</v>
+      </c>
+      <c r="D10" t="n">
+        <v>66.5551839464883</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Honor X7a 4/128GB Мерцающий серебристый (RU)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/details/smartfon-honor-x7a-4-128gb-titanium-silver-5109amlu-600010985190/#?details_block=prices&amp;related_search=honor%20x7a%204/128</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15600</v>
+      </c>
+      <c r="D11" t="n">
+        <v>74.74844274077623</v>
       </c>
     </row>
   </sheetData>
@@ -454,7 +634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +682,24 @@
         <v>73.58228817616084</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Huter GGT - 1500sx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/details/benzinovyy-trimmer-ggt-1500sx-huter-100026319015/#?details_block=prices&amp;related_search=huter%20ggt%201500sx</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9590</v>
+      </c>
+      <c r="D3" t="n">
+        <v>68.0608967674661</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
